--- a/Segmentation MATLAB Code/Jaccard Data.xlsx
+++ b/Segmentation MATLAB Code/Jaccard Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillianmcgough/Documents/GitHub/loewlab/Segmentation MATLAB Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4245171-F162-3043-95A3-8B5212AE4A2C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460A6B63-8903-6F42-BECB-A5FC6C04479E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14640" xr2:uid="{67805980-4483-6F44-B15D-C6F873435013}"/>
+    <workbookView xWindow="6880" yWindow="460" windowWidth="25440" windowHeight="14640" xr2:uid="{67805980-4483-6F44-B15D-C6F873435013}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,9 +463,12 @@
         <f>100*B4</f>
         <v>0</v>
       </c>
+      <c r="D4">
+        <v>0.84871324777619295</v>
+      </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84.871324777619293</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -479,9 +482,12 @@
         <f>100*B5</f>
         <v>81.868654471454803</v>
       </c>
+      <c r="D5">
+        <v>0.82590636431681397</v>
+      </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82.590636431681403</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -492,9 +498,12 @@
         <f>100*B6</f>
         <v>0</v>
       </c>
+      <c r="D6">
+        <v>0.857737145068447</v>
+      </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85.773714506844698</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -518,9 +527,12 @@
         <f t="shared" ref="C8:C11" si="1">100*B8</f>
         <v>0</v>
       </c>
+      <c r="D8">
+        <v>0.90339435723047801</v>
+      </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90.339435723047799</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -544,9 +556,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D10">
+        <v>0.85212823567637797</v>
+      </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85.212823567637798</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -647,11 +662,11 @@
       </c>
       <c r="D17">
         <f>SUM(D2:D16)/15</f>
-        <v>6.0363950466733471E-2</v>
+        <v>0.34622257380462079</v>
       </c>
       <c r="E17">
         <f>SUM(E2:E16)/15</f>
-        <v>6.0363950466733467</v>
+        <v>34.622257380462074</v>
       </c>
     </row>
   </sheetData>
